--- a/datasets/cost_of_living/all_cities_cost_of_living_index.xlsx
+++ b/datasets/cost_of_living/all_cities_cost_of_living_index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthiarodriguez/Desktop/DSI-822/Capstone/datasets/cost_of_living/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthiarodriguez/Desktop/DSI-822/Projects/wfh-location-recommender/datasets/cost_of_living/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4371D7-C790-1B45-9B98-F9B16BC9E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70320D44-BE0A-CA4B-93B9-A6F57C9820FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28660" yWindow="1160" windowWidth="24940" windowHeight="15160" xr2:uid="{DBC792AE-BF91-7A45-ABB0-0BD9D898B8B5}"/>
   </bookViews>
@@ -824,7 +824,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>150.89999999999998</v>
